--- a/Documentation/Test/tests.xlsx
+++ b/Documentation/Test/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px37epx\Documents\TPI\TPI\Documentation\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE64322-E719-4797-BF82-EF5500CB6E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCADB9AD-291C-43ED-846A-3B8E2A8D584B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDF195C4-ABE1-495F-B754-E5633B145756}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Nom du test</t>
   </si>
@@ -161,6 +161,74 @@
   </si>
   <si>
     <t>bien mais pas de bonne gestion d'erreur</t>
+  </si>
+  <si>
+    <t>les résultats attendus</t>
+  </si>
+  <si>
+    <t>Affichage de la page courseRegistration.php</t>
+  </si>
+  <si>
+    <t>Affichage de la page stage</t>
+  </si>
+  <si>
+    <t>Affichage de la page admin</t>
+  </si>
+  <si>
+    <t>Affichage de la page home</t>
+  </si>
+  <si>
+    <t>Affichage de la page login</t>
+  </si>
+  <si>
+    <t>Création d'un stage dans la DB</t>
+  </si>
+  <si>
+    <t>Changement du statut d'un stage et l'envoi 
+de mail</t>
+  </si>
+  <si>
+    <t>Création d'un enseignant dans la DB</t>
+  </si>
+  <si>
+    <t>Modification d'un enseignant dans la DB</t>
+  </si>
+  <si>
+    <t>Supprication d'un dans la DB</t>
+  </si>
+  <si>
+    <t>Connexion en admin</t>
+  </si>
+  <si>
+    <t>Connexion en parent</t>
+  </si>
+  <si>
+    <t>Appliquer le filtre (année) sur la liste des stage</t>
+  </si>
+  <si>
+    <t>Appliquer le filtre (branche) sur la liste des stage</t>
+  </si>
+  <si>
+    <t>Accation d'un parent dans la DB et envoi de mail de confirmation</t>
+  </si>
+  <si>
+    <t>Refation d'un parent dans la DB et envoi de mail de refus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier un compte parent dans la DB </t>
+  </si>
+  <si>
+    <t>Supprimer un compte parent dans la DB</t>
+  </si>
+  <si>
+    <t>Ajout d'un enfant dans la DB</t>
+  </si>
+  <si>
+    <t>Insription d'un enfant à un stage</t>
+  </si>
+  <si>
+    <t>Création d'un compte parent pas activé et fait la demande aux 
+admins l'activation du compte</t>
   </si>
 </sst>
 </file>
@@ -222,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -236,6 +304,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -323,15 +394,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B8C73A6B-6098-4536-B66A-7D9CD7020657}" name="Tableau3" displayName="Tableau3" ref="A1:F26" totalsRowShown="0">
-  <autoFilter ref="A1:F26" xr:uid="{B8C73A6B-6098-4536-B66A-7D9CD7020657}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B8C73A6B-6098-4536-B66A-7D9CD7020657}" name="Tableau3" displayName="Tableau3" ref="A1:G26" totalsRowShown="0">
+  <autoFilter ref="A1:G26" xr:uid="{B8C73A6B-6098-4536-B66A-7D9CD7020657}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AF362986-26EA-4DBB-B0F6-673DAD00FDB8}" name="Nom du test"/>
     <tableColumn id="2" xr3:uid="{876AD406-C9AA-4069-AAD7-B6BF70053893}" name="Type d'utilisateur"/>
     <tableColumn id="3" xr3:uid="{B58F77F1-0C20-4515-A825-40F90B9842CB}" name="Résultat en local"/>
     <tableColumn id="4" xr3:uid="{3B9D9BB6-2863-434E-B499-644E837397B7}" name="Résultat sur le web Chrome"/>
     <tableColumn id="5" xr3:uid="{4A87DF76-35E7-4835-B026-378A701DDD3D}" name="Résultat sur le web Firefox"/>
     <tableColumn id="7" xr3:uid="{1CBD87F7-E15A-4D48-AE67-E1B27D043127}" name="Commentaire"/>
+    <tableColumn id="6" xr3:uid="{DEB2B8F1-8413-4BC9-B870-6A96AFB3FB82}" name="les résultats attendus"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -644,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F520D7D-C56B-47D4-8588-8FD314E23AA2}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F30"/>
+      <selection activeCell="A30" sqref="A29:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,9 +730,10 @@
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="88.7109375" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,13 +752,16 @@
       <c r="F1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -701,8 +777,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -718,8 +797,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -735,8 +817,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -752,8 +837,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -769,13 +857,16 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -794,8 +885,11 @@
       <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -811,8 +905,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -828,8 +925,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -848,8 +948,11 @@
       <c r="F12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -868,8 +971,11 @@
       <c r="F13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -885,8 +991,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -899,8 +1008,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -919,8 +1031,11 @@
       <c r="F16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -939,8 +1054,11 @@
       <c r="F17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -956,13 +1074,16 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -979,8 +1100,11 @@
         <v>1</v>
       </c>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -996,8 +1120,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1013,13 +1140,16 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1035,8 +1165,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1052,8 +1185,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1069,8 +1205,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1079,7 +1218,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1088,7 +1227,7 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1131,7 +1270,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C045D6C2-725A-4DDF-8AFF-FEC43221949C}">
           <x14:formula1>
             <xm:f>Feuil2!$A$2:$A$5</xm:f>
